--- a/excel/SuiteA.xlsx
+++ b/excel/SuiteA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C361F7FD-E67D-4B2A-8E4D-4CAA0F95B619}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2D3A53-E0D4-4552-8353-992AFD1298F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="4845" windowWidth="12570" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
